--- a/biology/Botanique/UPM_(entreprise)/UPM_(entreprise).xlsx
+++ b/biology/Botanique/UPM_(entreprise)/UPM_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 UPM (United Paper Mills) auparavant UPM-Kymmene Oyj  est une entreprise finlandaise fournissant des produits forestiers et fabricant de papier dans ses usines à papier ou  papeteries à travers le monde.
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UPM est le résultat de la fusion d'Yhtyneet Paperitehtaat Oy[2] et de Kymmene Oy survenue en 1996. Au départ, la nouvelle société portait le nom d'UPM-Kymmene. Sa raison sociale a finalement été abrégée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UPM est le résultat de la fusion d'Yhtyneet Paperitehtaat Oy et de Kymmene Oy survenue en 1996. Au départ, la nouvelle société portait le nom d'UPM-Kymmene. Sa raison sociale a finalement été abrégée.
 En 2005, UPM est le septième plus important fabricant de papier du monde la société compte 31 500 employés et son chiffre d'affaires était de 9,3 milliards d'euros.
 En mars 2006, UPM a annoncé un programme de restructuration, incluant environ 3 600 licenciements, dont environ 3 000 en Finlande et une fermeture du site de Voikkaa à Kuusankoski. Cela a provoqué le plus grand licenciement de l'histoire de la Finlande.
-En octobre 2021, Stora Enso et UPM sont soupçonnées d’entente dans la production de la pâte à papier par l'Union européenne et font l'objet  d'une perquisition, d'autres entreprises finlandaises du secteur sont concernées[3]. Vu l'évolution opposée de l'édition graphique, des papiers de journaux d'une part et de la livraison à domicile d'autre part, les grands groupes ont transformé des lignes de production de papier en lignes de production de carton et ont fermé des usines de papier. La réduction des capacités de production de papier aggrave les pénuries, fait grimper les prix et  accroît les marges. La Commission européenne enquête sur une entente possible entre les grands groupes[4],[5].
+En octobre 2021, Stora Enso et UPM sont soupçonnées d’entente dans la production de la pâte à papier par l'Union européenne et font l'objet  d'une perquisition, d'autres entreprises finlandaises du secteur sont concernées. Vu l'évolution opposée de l'édition graphique, des papiers de journaux d'une part et de la livraison à domicile d'autre part, les grands groupes ont transformé des lignes de production de papier en lignes de production de carton et ont fermé des usines de papier. La réduction des capacités de production de papier aggrave les pénuries, fait grimper les prix et  accroît les marges. La Commission européenne enquête sur une entente possible entre les grands groupes,.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La part du chiffre d'affaires et du résultat opérationnel des différentes activités est en 2018 la suivante[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La part du chiffre d'affaires et du résultat opérationnel des différentes activités est en 2018 la suivante:
 </t>
         </is>
       </c>
@@ -578,18 +594,12 @@
           <t>Sites de production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les sites de production sont[6]:
-France
-En France, UPM possède / a possédé plusieurs usines (par ordre alphabétique) :
-Rabopale à Aigrefeuille-d'Aunis (près de La Rochelle) spécialisée dans le rabotage ;
-Chapelle Darblay à Grand-Couronne (près de Rouen). Arrêtée en 2020, fermeture définitive juin 2021, bien que bénéficiaire. Spécialisée dans le papier journal dont elle représentait 25% du marché français. Elle collectait 40% du papier recyclé de France. Elle avait été fondée en 1928.L'usine de la Chapelle Darblay est reprise par François Pinault en 1987 pour 1 franc symbolique, largement subventionnées par l'État elle est cédée dès 1990 avec 435 millions de francs de plus-values[7]. 500 millions d'euros d'investissements ont été effectués ces trente-cinq dernières années, dont 300 millions pour la machine à papier de 110 mètres de long qui transforme les fibres en papier journal[8]. Le site de la Chapelle Darblay où en 1985 a été inventé le procédé de désencrage et de recyclage du papier journal est un outil performant[9]. Jusqu'en 2021, l'usine de la Chapelle Darblay récupérait 350 000 tonnes de journaux, revues, magazines et prospectus via 350 contrats passés avec des collectivités représentant 24 millions de personnes. Cette usine est un maillon essentiel de l'économie circulaire du papier en France, elle représente 40% de la capacité de recyclage française[10],[11]. Employant 230 salariés, arrêté en juin 2020, le site sera maintenu en état de marche par UPM jusqu'en juin 2021[12].
-Papeteries de Docelles dans les Vosges. Fermée en 2014[13]. Elle était spécialisée dans le papier bureautique. Ouverte en 1948 il s'agissait de la plus vieille papeterie d’Europe[14] et de la plus ancienne usine de France[15]. UPM a cassé les équipements de son usine pour qu'ils ne soient pas réutilisables avant de les revendre[16]
-Stracel à Strasbourg spécialisée dans le papier magazine. Revendue en 2014 au groupes VPK Packaging et Klingele Papierwerke sous le nom de Blue Paper[17].
-Raflatac à Pompey (près de Nancy) spécialisée dans les étiquettes.
-L'usine d'Aigrefeuille d'Aunis (Charente-Maritime) est spécialisée dans la scierie et la raboterie industrielle et fabrique pour le marché français les produits Wisa-Pro[18].
-La société Malvaux[19] (située à Loulay) était la seule entreprise de panneaux du groupe en France jusqu'en 2006, année où elle a été cédée à Green Recovery, fonds d'investissement spécialisé dans les « restructurations » et le rachat des entreprises en faillite. La seconde usine de rabotage, qui était située au Portel dans le Pas-de-Calais, a été fermée en 2011.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sites de production sont:
+</t>
         </is>
       </c>
     </row>
@@ -614,13 +624,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Actionnariat</t>
+          <t>Sites de production</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les actionnaires principaux au 31 décembre 2017 sont[20]:
-</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En France, UPM possède / a possédé plusieurs usines (par ordre alphabétique) :
+Rabopale à Aigrefeuille-d'Aunis (près de La Rochelle) spécialisée dans le rabotage ;
+Chapelle Darblay à Grand-Couronne (près de Rouen). Arrêtée en 2020, fermeture définitive juin 2021, bien que bénéficiaire. Spécialisée dans le papier journal dont elle représentait 25% du marché français. Elle collectait 40% du papier recyclé de France. Elle avait été fondée en 1928.L'usine de la Chapelle Darblay est reprise par François Pinault en 1987 pour 1 franc symbolique, largement subventionnées par l'État elle est cédée dès 1990 avec 435 millions de francs de plus-values. 500 millions d'euros d'investissements ont été effectués ces trente-cinq dernières années, dont 300 millions pour la machine à papier de 110 mètres de long qui transforme les fibres en papier journal. Le site de la Chapelle Darblay où en 1985 a été inventé le procédé de désencrage et de recyclage du papier journal est un outil performant. Jusqu'en 2021, l'usine de la Chapelle Darblay récupérait 350 000 tonnes de journaux, revues, magazines et prospectus via 350 contrats passés avec des collectivités représentant 24 millions de personnes. Cette usine est un maillon essentiel de l'économie circulaire du papier en France, elle représente 40% de la capacité de recyclage française,. Employant 230 salariés, arrêté en juin 2020, le site sera maintenu en état de marche par UPM jusqu'en juin 2021.
+Papeteries de Docelles dans les Vosges. Fermée en 2014. Elle était spécialisée dans le papier bureautique. Ouverte en 1948 il s'agissait de la plus vieille papeterie d’Europe et de la plus ancienne usine de France. UPM a cassé les équipements de son usine pour qu'ils ne soient pas réutilisables avant de les revendre
+Stracel à Strasbourg spécialisée dans le papier magazine. Revendue en 2014 au groupes VPK Packaging et Klingele Papierwerke sous le nom de Blue Paper.
+Raflatac à Pompey (près de Nancy) spécialisée dans les étiquettes.
+L'usine d'Aigrefeuille d'Aunis (Charente-Maritime) est spécialisée dans la scierie et la raboterie industrielle et fabrique pour le marché français les produits Wisa-Pro.
+La société Malvaux (située à Loulay) était la seule entreprise de panneaux du groupe en France jusqu'en 2006, année où elle a été cédée à Green Recovery, fonds d'investissement spécialisé dans les « restructurations » et le rachat des entreprises en faillite. La seconde usine de rabotage, qui était située au Portel dans le Pas-de-Calais, a été fermée en 2011.</t>
         </is>
       </c>
     </row>
@@ -645,17 +667,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Actionnariat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les actionnaires principaux au 31 décembre 2017 sont:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UPM_(entreprise)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/UPM_(entreprise)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, le groupe a été impliqué en France dans une procédure menée par le Conseil de la concurrence pour entente illicite au sein de l'UFC (Union des Fabricants de Contreplaqué[21]). Ces pratiques remontent aux années 1990 et concernent aussi Plysorol, Rougier Panneaux, Joubert, Thébault, Mathé et Allin. Le groupe UPM n'a pas été sanctionné au titre du point IV de l'article L. 464-2 du Code de commerce, ayant coopéré avec l'administration[22].
-En 2017,  UPM sabote, sur ordre de la direction finlandaise et avec la complicité du directeur du site, Jean Kubiak, les machines de la papeterie de Docelles dans les Vosges, afin de les rendre inutilisables avant de vendre l'usine[23],[16],[14],[24].
-Le 10 septembre 2019, UPM annonce la vente de son site de papeterie Chapelle-Darblay de Grand-Couronne en Seine-Maritime. Pour cause de manque de repreneur, la fermeture définitive du site de Grand-Couronne est prévue en juin 2021. Cette fermeture serait un échec industriel et écologique, elle mettrait en péril la filière du recyclage papier en France, son remplacement serait localisé à l'étranger[12]
-En juin 2021, UPM annonce la cession du dernier site de recyclage de papier en France, la Chapelle-Darblay. Un projet contesté de production d’hydrogène pourrait succéder à la papeterie[25]
-En octobre 2021, la Métropole Rouen-Normandie désapprouve le choix par UPM des repreneurs de la papeterie Chapelle-Darblay, annonce vouloir racheter le site et préférerait conserver les capacités de recyclage du site, l’un des plus grands de France.La Métropole va préempter le site « nom de l’intérêt général ». L’usine occupe un site de 33 hectares. Samfi-Paprec, choisi par UPM,  a déposé une offre à hauteur de 7,5 millions d’euros, tandis que Veolia proposait 8 millions pour acheter le site. Selon un communiqué de la Métropole, le projet de Samfi-Paprec « comprend une activité de tri de déchets, sans recyclage, et la mise en place d’ici trois à cinq ans d’une unité de production d’hydrogène »,  « Les compétences et la valeur ajoutée de la Chapelle-Darblay en matière de recyclage papier/carton, uniques en France par leur nature et leur ampleur industrielle, seraient alors perdues »[26],[27].
-En 2022, la métropole de Rouen confirme sa décision de préempter le site de la papeterie d’UPM, fermée depuis 2020 mais non démantelée et ouvre la voie au maintien de l’activité historique de transformation et de recyclage de papier. La démarche juridique de la métropole vise à annuler la vente de la papeterie au consortium Samfi Invest-Paprec[28]. Le prix de l'ensemble des biens immobiliers constitutifs du site industriel de la Chapelle Darblay sur la commune de Grand-Couronne et Petit-Couronne est de 5 Millions d'Euros. L’objectif de continuité d’une activité industrielle papetière et de ses activités de recyclage impose d’élargir le périmètre de cette acquisition à celui des autres outils de production et équipements nécessaires dont la valeur a été arrêtée en accord avec UPM France à un montant global de 3 Millions d'Euros. Le consortium Véolia/Fibre Excellence s’est porté candidat pour reprendre l’exploitation et prolonger le développement de l’usine de la Chapelle Darblay, en répondant aux enjeux industriels et environnementaux de la Métropole.  La revente de l’ensemble 8 Millions d'Euros (9,6 millions d'euros TTC) par la Métropole au consortium d’industriels en fait une opération blanche pour la Métropole aux frais près. Cette reprise ouvre la porte à la relocalisation en France du recyclage papier qui avait été transféré en Belgique et en Allemagne[29],[30],[31],[32].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, le groupe a été impliqué en France dans une procédure menée par le Conseil de la concurrence pour entente illicite au sein de l'UFC (Union des Fabricants de Contreplaqué). Ces pratiques remontent aux années 1990 et concernent aussi Plysorol, Rougier Panneaux, Joubert, Thébault, Mathé et Allin. Le groupe UPM n'a pas été sanctionné au titre du point IV de l'article L. 464-2 du Code de commerce, ayant coopéré avec l'administration.
+En 2017,  UPM sabote, sur ordre de la direction finlandaise et avec la complicité du directeur du site, Jean Kubiak, les machines de la papeterie de Docelles dans les Vosges, afin de les rendre inutilisables avant de vendre l'usine.
+Le 10 septembre 2019, UPM annonce la vente de son site de papeterie Chapelle-Darblay de Grand-Couronne en Seine-Maritime. Pour cause de manque de repreneur, la fermeture définitive du site de Grand-Couronne est prévue en juin 2021. Cette fermeture serait un échec industriel et écologique, elle mettrait en péril la filière du recyclage papier en France, son remplacement serait localisé à l'étranger
+En juin 2021, UPM annonce la cession du dernier site de recyclage de papier en France, la Chapelle-Darblay. Un projet contesté de production d’hydrogène pourrait succéder à la papeterie
+En octobre 2021, la Métropole Rouen-Normandie désapprouve le choix par UPM des repreneurs de la papeterie Chapelle-Darblay, annonce vouloir racheter le site et préférerait conserver les capacités de recyclage du site, l’un des plus grands de France.La Métropole va préempter le site « nom de l’intérêt général ». L’usine occupe un site de 33 hectares. Samfi-Paprec, choisi par UPM,  a déposé une offre à hauteur de 7,5 millions d’euros, tandis que Veolia proposait 8 millions pour acheter le site. Selon un communiqué de la Métropole, le projet de Samfi-Paprec « comprend une activité de tri de déchets, sans recyclage, et la mise en place d’ici trois à cinq ans d’une unité de production d’hydrogène »,  « Les compétences et la valeur ajoutée de la Chapelle-Darblay en matière de recyclage papier/carton, uniques en France par leur nature et leur ampleur industrielle, seraient alors perdues »,.
+En 2022, la métropole de Rouen confirme sa décision de préempter le site de la papeterie d’UPM, fermée depuis 2020 mais non démantelée et ouvre la voie au maintien de l’activité historique de transformation et de recyclage de papier. La démarche juridique de la métropole vise à annuler la vente de la papeterie au consortium Samfi Invest-Paprec. Le prix de l'ensemble des biens immobiliers constitutifs du site industriel de la Chapelle Darblay sur la commune de Grand-Couronne et Petit-Couronne est de 5 Millions d'Euros. L’objectif de continuité d’une activité industrielle papetière et de ses activités de recyclage impose d’élargir le périmètre de cette acquisition à celui des autres outils de production et équipements nécessaires dont la valeur a été arrêtée en accord avec UPM France à un montant global de 3 Millions d'Euros. Le consortium Véolia/Fibre Excellence s’est porté candidat pour reprendre l’exploitation et prolonger le développement de l’usine de la Chapelle Darblay, en répondant aux enjeux industriels et environnementaux de la Métropole.  La revente de l’ensemble 8 Millions d'Euros (9,6 millions d'euros TTC) par la Métropole au consortium d’industriels en fait une opération blanche pour la Métropole aux frais près. Cette reprise ouvre la porte à la relocalisation en France du recyclage papier qui avait été transféré en Belgique et en Allemagne.
 </t>
         </is>
       </c>
